--- a/FishLandings/household groups/statistics/Zinc (ug)_output.xlsx
+++ b/FishLandings/household groups/statistics/Zinc (ug)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>143023.145581</v>
+        <v>191270.432856</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>58.017292</v>
+        <v>90.021896</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>47563.327646</v>
+        <v>80486.17425500001</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9.647024</v>
+        <v>18.940507</v>
       </c>
       <c r="E3">
-        <v>9.6e-05</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>549735.439229</v>
+        <v>705403.760317</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-20.643864</v>
+        <v>-20.245188</v>
       </c>
       <c r="H5">
-        <v>-42.328071</v>
+        <v>-36.957398</v>
       </c>
       <c r="I5">
-        <v>1.040343</v>
+        <v>-3.532978</v>
       </c>
       <c r="J5">
-        <v>0.065806</v>
+        <v>0.012793</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>11.407889</v>
+        <v>13.89398</v>
       </c>
       <c r="H6">
-        <v>-11.941411</v>
+        <v>-3.659507</v>
       </c>
       <c r="I6">
-        <v>34.757189</v>
+        <v>31.447467</v>
       </c>
       <c r="J6">
-        <v>0.482753</v>
+        <v>0.151024</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>32.051753</v>
+        <v>34.139168</v>
       </c>
       <c r="H7">
-        <v>14.39944</v>
+        <v>20.940118</v>
       </c>
       <c r="I7">
-        <v>49.704067</v>
+        <v>47.338218</v>
       </c>
       <c r="J7">
-        <v>8.1e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Zinc (ug)_output.xlsx
+++ b/FishLandings/household groups/statistics/Zinc (ug)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>191270.432856</v>
+        <v>143023.145581</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>90.021896</v>
+        <v>58.017292</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>80486.17425500001</v>
+        <v>47563.327646</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>18.940507</v>
+        <v>9.647024</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>9.6e-05</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>705403.760317</v>
+        <v>549735.439229</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-20.245188</v>
+        <v>-20.643864</v>
       </c>
       <c r="H5">
-        <v>-36.957398</v>
+        <v>-42.328071</v>
       </c>
       <c r="I5">
-        <v>-3.532978</v>
+        <v>1.040343</v>
       </c>
       <c r="J5">
-        <v>0.012793</v>
+        <v>0.065806</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>13.89398</v>
+        <v>11.407889</v>
       </c>
       <c r="H6">
-        <v>-3.659507</v>
+        <v>-11.941411</v>
       </c>
       <c r="I6">
-        <v>31.447467</v>
+        <v>34.757189</v>
       </c>
       <c r="J6">
-        <v>0.151024</v>
+        <v>0.482753</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>34.139168</v>
+        <v>32.051753</v>
       </c>
       <c r="H7">
-        <v>20.940118</v>
+        <v>14.39944</v>
       </c>
       <c r="I7">
-        <v>47.338218</v>
+        <v>49.704067</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.1e-05</v>
       </c>
     </row>
   </sheetData>
